--- a/data/投资移民 - 政策法规.xlsx
+++ b/data/投资移民 - 政策法规.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21570" windowHeight="9930"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
-    <t>国际海外侨的政策法规</t>
+    <t>归侨侨眷政策法规</t>
   </si>
   <si>
     <t>概述</t>
@@ -27,9 +27,7 @@
     <t>《中华人民共和国归侨侨眷权益保护法》</t>
   </si>
   <si>
-    <t xml:space="preserve">
-归侨、侨眷合法权益受到侵害时，被侵害人有权要求有关主管部门依法处理，或者向人民法院提起诉讼。归国华侨联合会应当给予支持和帮助。国家机关工作人员玩忽职守或者滥用职权，致使归侨、侨眷合法权益受到损害的，其所在单位或者上级主管机关应当责令改正或者给予行政处分；构成犯罪的，依法追究刑事责任。
-</t>
+    <t>归侨、侨眷合法权益受到侵害时，被侵害人有权要求有关主管部门依法处理，或者向人民法院提起诉讼。归国华侨联合会应当给予支持和帮助。国家机关工作人员玩忽职守或者滥用职权，致使归侨、侨眷合法权益受到损害的，其所在单位或者上级主管机关应当责令改正或者给予行政处分；构成犯罪的，依法追究刑事责任。</t>
   </si>
   <si>
     <t>http://www.gqb.gov.cn/node2/node3/node5/node9/userobject7ai1272.html</t>
@@ -38,9 +36,7 @@
     <t>《中华人民共和国归侨侨眷权益保护法实施办法》</t>
   </si>
   <si>
-    <t xml:space="preserve">
-国家依法维护归侨、侨眷的社会保障权益。用人单位和归侨、侨眷应当依法参加当地的社会保险，缴纳社会保险费。参加社会保险的归侨、侨眷依法享受社会保险待遇。地方人民政府对生活确有困难的归侨、侨眷，应当给予救济，并对其生产、就业给予扶持；依法保障丧失劳动能力又无经济来源的归侨、侨眷的基本生活。
-</t>
+    <t>国家依法维护归侨、侨眷的社会保障权益。用人单位和归侨、侨眷应当依法参加当地的社会保险，缴纳社会保险费。参加社会保险的归侨、侨眷依法享受社会保险待遇。地方人民政府对生活确有困难的归侨、侨眷，应当给予救济，并对其生产、就业给予扶持；依法保障丧失劳动能力又无经济来源的归侨、侨眷的基本生活。</t>
   </si>
   <si>
     <t>http://www.gqb.gov.cn/node2/node3/node5/node9/userobject7ai1271.html</t>
@@ -49,9 +45,7 @@
     <t>《中华人民共和国出境入境管理法》</t>
   </si>
   <si>
-    <t xml:space="preserve">
-定居国外的中国公民要求回国定居的，应当在入境前向中华人民共和国驻外使馆、领馆或者外交部委托的其他驻外机构提出申请，也可以由本人或者经由国内亲属向拟定居地的县级以上地方人民政府侨务部门提出申请。定居国外的中国公民在中国境内办理金融、教育、医疗、交通、电信、社会保险、财产登记等事务需要提供身份证明的，可以凭本人的护照证明其身份。
-</t>
+    <t>定居国外的中国公民要求回国定居的，应当在入境前向中华人民共和国驻外使馆、领馆或者外交部委托的其他驻外机构提出申请，也可以由本人或者经由国内亲属向拟定居地的县级以上地方人民政府侨务部门提出申请。定居国外的中国公民在中国境内办理金融、教育、医疗、交通、电信、社会保险、财产登记等事务需要提供身份证明的，可以凭本人的护照证明其身份。</t>
   </si>
   <si>
     <t>http://cs.mfa.gov.cn/zlbg/flfg/crjxg/t1054650.shtml</t>
@@ -67,7 +61,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -242,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +238,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,12 +441,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,152 +567,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,16 +720,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1062,13 +1088,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="86.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="74.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
@@ -1081,36 +1107,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="54" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="54" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="121.5" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="54" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
